--- a/2. 연구사업(2023년)/5. 혼합음료 리스트/유통혼합음료 구매 목록_가격.xlsx
+++ b/2. 연구사업(2023년)/5. 혼합음료 리스트/유통혼합음료 구매 목록_가격.xlsx
@@ -15,7 +15,7 @@
     <sheet name="유통 혼합음료" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'유통 혼합음료'!$B$5:$F$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'유통 혼합음료'!$A$5:$G$51</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'유통 혼합음료'!$1:$5</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="130">
   <si>
     <t>유통 혼합음료 구매 예정 품목</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -496,6 +496,45 @@
   </si>
   <si>
     <t>계</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>음료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠팡! | 미네랄메이킹7.4 천연 알칼리수 미네랄워터 500ml FDA인증 20개 (coupang.com)</t>
+  </si>
+  <si>
+    <t>쿠팡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미네랄메이킹7.4 천연 알칼리수 미네랄워터</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>제외</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.coupang.com/vp/products/6437018121?itemId=13918169574&amp;vendorItemId=77376023822&amp;q=%EB%82%98%EB%85%B8%EC%97%90%EC%9D%B4%EC%B9%98+%EC%88%98%EC%86%8C%EC%88%98&amp;itemsCount=36&amp;searchId=96c639a7cf5c44bcb4e1f1cb9f909f1c&amp;rank=11&amp;isAddedCart=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>에이워터 내추럴 알카리수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>중복</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -506,7 +545,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -562,6 +601,23 @@
     <font>
       <b/>
       <sz val="15"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -639,62 +695,62 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -703,6 +759,34 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -989,972 +1073,1143 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomLeft" activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="13.375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="51.125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="13.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="51.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-    </row>
-    <row r="3" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+    </row>
+    <row r="2" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="20" t="s">
         <v>119</v>
       </c>
       <c r="E3" s="21"/>
-      <c r="F3" s="18">
+      <c r="F3" s="17">
         <f>SUM(E6:E49)</f>
         <v>1458280</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="4" spans="1:7" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="G5" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <v>11000</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="G6" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <v>2</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="9">
         <v>21000</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="G7" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
         <v>3</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <v>25000</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+      <c r="G8" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
         <v>4</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <v>28000</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+      <c r="G9" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
         <v>5</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <v>33000</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="G10" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
         <v>6</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="12">
         <v>39000</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+      <c r="G11" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
         <v>7</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="9">
         <v>39000</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+      <c r="G12" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
         <v>8</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="9">
+        <v>43000</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>9</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="28">
+        <v>80000</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>10</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="28">
+        <v>36000</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>11</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="15">
+        <v>15660</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>12</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="9">
+        <v>16000</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>13</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="15">
+        <v>17000</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>14</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="15">
+        <v>18000</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>15</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="15">
+        <v>19500</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>16</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="15">
+        <v>20000</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>17</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="9">
+        <v>20000</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>18</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="15">
+        <v>20000</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>19</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="12">
+        <v>20000</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>20</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="12">
+        <v>25000</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>21</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="15">
+        <v>26000</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>22</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="15">
+        <v>26000</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>23</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="15">
+        <v>29000</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>24</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="12">
+        <v>30000</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>25</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="15">
+        <v>33000</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>26</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="12">
+        <v>33680</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>27</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" s="15">
+        <v>37100</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>28</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="15">
+        <v>39000</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <v>29</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="9">
+        <v>39550</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
+        <v>30</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="12">
+        <v>40000</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
+        <v>31</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="24">
+        <v>45000</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
+        <v>32</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="15">
+        <v>46000</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
+        <v>33</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="12">
+        <v>50000</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
+        <v>34</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="12">
+        <v>50000</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
+        <v>35</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="9">
+        <v>78000</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
+        <v>36</v>
+      </c>
+      <c r="B41" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="10">
-        <v>43000</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
-        <v>9</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="10">
-        <v>80000</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
-        <v>10</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="10">
+      <c r="C41" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="28">
         <v>36000</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
-        <v>11</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="14" t="s">
+      <c r="F41" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
+        <v>37</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="9">
+        <v>24000</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
         <v>38</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="B43" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43" s="9">
+        <v>11410</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
+        <v>39</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" s="9">
+        <v>44000</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
+        <v>40</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E45" s="9">
+        <v>37070</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
+        <v>41</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="9">
+        <v>33000</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="25">
+        <v>42</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="E47" s="28">
+        <v>24000</v>
+      </c>
+      <c r="F47" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="5">
+        <v>43</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E48" s="9">
+        <v>12000</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="5">
+        <v>44</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E49" s="15">
+        <v>88310</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>45</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D50" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="16">
-        <v>15660</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
-        <v>12</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="10">
-        <v>16000</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
-        <v>13</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="16">
-        <v>17000</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
-        <v>14</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="16">
+      <c r="E50" s="2">
         <v>18000</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F50" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
-        <v>15</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="16">
-        <v>19500</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
-        <v>16</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="16">
-        <v>20000</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
-        <v>17</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="10">
-        <v>20000</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
-        <v>18</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="16">
-        <v>20000</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
-        <v>19</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="13">
-        <v>20000</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6">
-        <v>20</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="13">
-        <v>25000</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
-        <v>21</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="16">
-        <v>26000</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6">
-        <v>22</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E27" s="16">
-        <v>26000</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6">
-        <v>23</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="16">
-        <v>29000</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6">
-        <v>24</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E29" s="13">
-        <v>30000</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6">
-        <v>25</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="16">
-        <v>33000</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6">
-        <v>26</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="13">
-        <v>33680</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6">
-        <v>27</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E32" s="16">
-        <v>37100</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6">
-        <v>28</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E33" s="16">
-        <v>39000</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6">
-        <v>29</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="10">
-        <v>39550</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6">
-        <v>30</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" s="13">
-        <v>40000</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="6">
-        <v>31</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E36" s="16">
-        <v>45000</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6">
-        <v>32</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E37" s="16">
-        <v>46000</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="6">
-        <v>33</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E38" s="13">
-        <v>50000</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6">
-        <v>34</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E39" s="13">
-        <v>50000</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="6">
-        <v>35</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" s="10">
-        <v>78000</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="6">
-        <v>36</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E41" s="10">
-        <v>36000</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="6">
-        <v>37</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E42" s="10">
-        <v>24000</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="6">
-        <v>38</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="E43" s="10">
-        <v>11410</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="6">
-        <v>39</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="E44" s="10">
-        <v>44000</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="6">
-        <v>40</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="E45" s="10">
-        <v>37070</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="6">
-        <v>41</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E46" s="10">
-        <v>33000</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="6">
-        <v>42</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="E47" s="10">
-        <v>24000</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="6">
-        <v>43</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="E48" s="10">
+      <c r="B51" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1">
         <v>12000</v>
       </c>
-      <c r="F48" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="6">
-        <v>44</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E49" s="16">
-        <v>88310</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="53" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="F53" s="2"/>
+      <c r="F51" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="F53" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="B5:F49">
-    <sortState ref="B4:F46">
-      <sortCondition ref="B3:B46"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A5:G51"/>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="D3:E3"/>
@@ -2002,12 +2257,14 @@
     <hyperlink ref="C43" r:id="rId33"/>
     <hyperlink ref="C44" r:id="rId34"/>
     <hyperlink ref="C45" r:id="rId35"/>
-    <hyperlink ref="C46"/>
+    <hyperlink ref="C46" display="https://www.coupang.com/vp/products/6394064952?vendorItemId=80270897239&amp;sourceType=SDP_ALSO_VIEWED&amp;searchId=23b5adee21b94453b6e3e0e17f86fb6a&amp;rmdId=23b5adee21b94453b6e3e0e17f86fb6a&amp;eventLabel=recommendation_widget_pc_sdp_001&amp;platform=web&amp;rmdABTestInfo=4338"/>
     <hyperlink ref="C47" r:id="rId36"/>
     <hyperlink ref="C48" r:id="rId37"/>
+    <hyperlink ref="C50" r:id="rId38" display="https://www.coupang.com/vp/products/7290825265?itemId=18634122071&amp;vendorItemId=84231611842&amp;sourceType=srp_product_ads&amp;clickEventId=35654cb4-4535-4a21-b2e8-c5462c04f3a8&amp;korePlacement=15&amp;koreSubPlacement=21&amp;q=%EB%8B%A5%ED%84%B0+%EC%BD%94%EC%95%84&amp;itemsCount=36&amp;searchId=3af9effd70a04b429587b68d1242eae6&amp;rank=56&amp;isAddedCart="/>
+    <hyperlink ref="C51" r:id="rId39"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId38"/>
+  <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId40"/>
 </worksheet>
 </file>